--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220504_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220504_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-04</t>
@@ -3389,7 +3389,6 @@
         <v>137</v>
       </c>
       <c r="F87">
-        <f/>
         <v>0</v>
       </c>
       <c r="G87" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220504_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220504_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
   <si>
     <t>사이트</t>
   </si>
@@ -703,7 +703,7 @@
     <t>MORE VISION</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1182,7 @@
         <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1237,7 +1234,7 @@
         <v>217</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1263,7 +1260,7 @@
         <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1315,7 +1312,7 @@
         <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1341,7 +1338,7 @@
         <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1367,7 +1364,7 @@
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1419,7 +1416,7 @@
         <v>222</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1445,7 +1442,7 @@
         <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1471,7 +1468,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1497,7 +1494,7 @@
         <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1523,7 +1520,7 @@
         <v>217</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1575,7 +1572,7 @@
         <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1601,7 +1598,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1627,7 +1624,7 @@
         <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1653,7 +1650,7 @@
         <v>215</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1679,7 +1676,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1731,7 +1728,7 @@
         <v>228</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1757,7 +1754,7 @@
         <v>215</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1783,7 +1780,7 @@
         <v>215</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1809,7 +1806,7 @@
         <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1835,7 +1832,7 @@
         <v>230</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1887,7 +1884,7 @@
         <v>222</v>
       </c>
       <c r="H29" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1965,7 +1962,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1991,7 +1988,7 @@
         <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2017,7 +2014,7 @@
         <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2043,7 +2040,7 @@
         <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2069,7 +2066,7 @@
         <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2095,7 +2092,7 @@
         <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2121,7 +2118,7 @@
         <v>223</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2173,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2199,7 +2196,7 @@
         <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2225,7 +2222,7 @@
         <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2251,7 +2248,7 @@
         <v>217</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2277,7 +2274,7 @@
         <v>230</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2303,7 +2300,7 @@
         <v>229</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2329,7 +2326,7 @@
         <v>235</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2355,7 +2352,7 @@
         <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2381,7 +2378,7 @@
         <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2407,7 +2404,7 @@
         <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2433,7 +2430,7 @@
         <v>230</v>
       </c>
       <c r="H50" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2485,7 +2482,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2511,7 +2508,7 @@
         <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2537,7 +2534,7 @@
         <v>215</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2563,7 +2560,7 @@
         <v>240</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2589,7 +2586,7 @@
         <v>240</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2615,7 +2612,7 @@
         <v>241</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2667,7 +2664,7 @@
         <v>230</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2693,7 +2690,7 @@
         <v>230</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2745,7 +2742,7 @@
         <v>223</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2771,7 +2768,7 @@
         <v>223</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2797,7 +2794,7 @@
         <v>230</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2823,7 +2820,7 @@
         <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2849,7 +2846,7 @@
         <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2875,7 +2872,7 @@
         <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2901,7 +2898,7 @@
         <v>240</v>
       </c>
       <c r="H68" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2927,7 +2924,7 @@
         <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3031,7 +3028,7 @@
         <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3057,7 +3054,7 @@
         <v>240</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3083,7 +3080,7 @@
         <v>240</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3109,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3161,7 +3158,7 @@
         <v>229</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3187,7 +3184,7 @@
         <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3213,7 +3210,7 @@
         <v>224</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3239,7 +3236,7 @@
         <v>215</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3265,7 +3262,7 @@
         <v>240</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3317,7 +3314,7 @@
         <v>246</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3343,7 +3340,7 @@
         <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3395,7 +3392,7 @@
         <v>223</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3421,7 +3418,7 @@
         <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3473,7 +3470,7 @@
         <v>217</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3499,7 +3496,7 @@
         <v>223</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3525,7 +3522,7 @@
         <v>233</v>
       </c>
       <c r="H92" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3551,7 +3548,7 @@
         <v>249</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3577,7 +3574,7 @@
         <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3603,7 +3600,7 @@
         <v>215</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3629,7 +3626,7 @@
         <v>230</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3681,7 +3678,7 @@
         <v>229</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3733,7 +3730,7 @@
         <v>251</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3759,7 +3756,7 @@
         <v>230</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
